--- a/downloaded_files/MEPS310_Lecture-35602.xlsx
+++ b/downloaded_files/MEPS310_Lecture-35602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,15 +199,6 @@
   </x:si>
   <x:si>
     <x:t>Mazen Elsayed Ibrahim Abdelhalim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايفى عماد مملوك فخرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
   <x:si>
     <x:t>1230096</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1392,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6669427083</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45909.6204527778</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6204527778</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45906.6758269676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6758269676</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45909.4212792477</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS310_Lecture-35602.xlsx
+++ b/downloaded_files/MEPS310_Lecture-35602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Eldeen Mohamed Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220308</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1255,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45907.4295119213</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6663289352</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.6663289352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.6204527778</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45909.6204527778</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6758269676</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45906.6758269676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45909.4212792477</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS310_Lecture-35602.xlsx
+++ b/downloaded_files/MEPS310_Lecture-35602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed osama hamed Ali Dahroug</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد رضا محمد عبد الرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Reda Mohamed abdel rahman</x:t>
   </x:si>
   <x:si>
     <x:t>1200786</x:t>
@@ -395,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -818,7 +809,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.415499919</x:v>
+        <x:v>45907.4633590278</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -850,7 +841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4633590278</x:v>
+        <x:v>45909.4587482639</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -882,7 +873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4587482639</x:v>
+        <x:v>45907.5673358796</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +905,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.5673358796</x:v>
+        <x:v>45907.4198740741</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -942,11 +933,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.4198740741</x:v>
+        <x:v>45907.418115162</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -969,14 +958,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.418115162</x:v>
+        <x:v>45906.6667515046</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,7 +999,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6667515046</x:v>
+        <x:v>45906.6647992245</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,7 +1031,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647992245</x:v>
+        <x:v>45907.417322338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1063,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.417322338</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1095,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45909.4331547454</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1127,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4331547454</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.4171753125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4171753125</x:v>
+        <x:v>45907.6675802083</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6675802083</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.9122760069</x:v>
+        <x:v>45907.4295119213</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45907.6653508102</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653508102</x:v>
+        <x:v>45907.6663289352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6663289352</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.415737581</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.415737581</x:v>
+        <x:v>45909.6204527778</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6204527778</x:v>
+        <x:v>45912.0005776968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.0005776968</x:v>
+        <x:v>45906.6758269676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6758269676</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1633,38 +1624,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45909.4212792477</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
